--- a/HW2/ComputationalLog.xlsx
+++ b/HW2/ComputationalLog.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/angel/Projects/AI/HW2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{391E3F70-B39A-3F48-994D-A6E3A57FAE9F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70EFF7FF-E641-064E-8F6A-842542166D8E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4240" yWindow="2060" windowWidth="28800" windowHeight="17540" xr2:uid="{59E49B6F-256E-0545-B064-D6FE8281F83C}"/>
+    <workbookView xWindow="1780" yWindow="500" windowWidth="28800" windowHeight="17540" xr2:uid="{59E49B6F-256E-0545-B064-D6FE8281F83C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -404,15 +404,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20C89790-86B7-5549-A53D-283DD7486D79}">
-  <dimension ref="A1:C108"/>
+  <dimension ref="A1:E150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <v>24.3048537406648</v>
       </c>
@@ -421,10 +421,10 @@
       </c>
       <c r="C1">
         <f>AVERAGE(A:A)</f>
-        <v>25.224295788977937</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>25.921859886485144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>25.046645125999898</v>
       </c>
@@ -433,10 +433,13 @@
       </c>
       <c r="C2">
         <f>MAX(A:A)</f>
-        <v>34.039092609668501</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>42.828319869004098</v>
+      </c>
+      <c r="E2">
+        <v>42.83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>24.7494358503317</v>
       </c>
@@ -448,7 +451,7 @@
         <v>23.6973924846655</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>24.243648762999001</v>
       </c>
@@ -457,10 +460,10 @@
       </c>
       <c r="C4">
         <f>(C2/C1)</f>
-        <v>1.3494566070122875</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.6522086014103277</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>23.9641157873338</v>
       </c>
@@ -469,60 +472,60 @@
       </c>
       <c r="C5">
         <f>(5/C4)</f>
-        <v>3.705195094097955</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3.0262522515207784</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>24.403486102998901</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>24.0210330943349</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>24.102386536331299</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>24.590751542001499</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>23.919347380333999</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>24.006742186000299</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>24.0732217219992</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>24.631174166332698</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>23.9664957760032</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>24.206876058999701</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>24.052310788999101</v>
       </c>
@@ -788,204 +791,412 @@
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69" s="1"/>
+      <c r="A69" s="1">
+        <v>25.602961569670299</v>
+      </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>25.602961569670299</v>
+        <v>25.9989463646634</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>25.9989463646634</v>
+        <v>24.525817312334102</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>24.525817312334102</v>
+        <v>25.8417705136671</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>25.8417705136671</v>
+        <v>25.008627733332101</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>25.008627733332101</v>
+        <v>26.224899795333201</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>26.224899795333201</v>
+        <v>26.981777882673899</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>26.981777882673899</v>
+        <v>26.832337591331399</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>26.832337591331399</v>
+        <v>31.554660480333599</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>31.554660480333599</v>
+        <v>29.692535168336001</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>29.692535168336001</v>
+        <v>25.159593368667</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>25.159593368667</v>
+        <v>29.536634768330199</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>29.536634768330199</v>
+        <v>26.765447244329401</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>26.765447244329401</v>
+        <v>24.235662136333598</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>24.235662136333598</v>
+        <v>24.254943241001399</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>24.254943241001399</v>
+        <v>24.6788266843262</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <v>24.6788266843262</v>
+        <v>24.2657347163282</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <v>24.2657347163282</v>
+        <v>24.316388599336801</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>24.316388599336801</v>
+        <v>24.490348031666699</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>24.490348031666699</v>
+        <v>24.509890139995399</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <v>24.509890139995399</v>
+        <v>24.514846280668198</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
-        <v>24.514846280668198</v>
+        <v>26.6827859106657</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>26.6827859106657</v>
+        <v>27.8022605910033</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
-        <v>27.8022605910033</v>
+        <v>25.094413980332298</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
-        <v>25.094413980332298</v>
+        <v>31.239855589665201</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <v>31.239855589665201</v>
+        <v>24.5595256746698</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>24.5595256746698</v>
+        <v>28.440612409331699</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
-        <v>28.440612409331699</v>
+        <v>24.393757186669902</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
-        <v>24.393757186669902</v>
+        <v>25.018058635333201</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
-        <v>25.018058635333201</v>
+        <v>25.8403038726731</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
-        <v>25.8403038726731</v>
+        <v>24.442115238663899</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
-        <v>24.442115238663899</v>
+        <v>28.2399302553337</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
-        <v>28.2399302553337</v>
+        <v>30.373733245995599</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
-        <v>30.373733245995599</v>
+        <v>33.293232303001098</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
-        <v>33.293232303001098</v>
+        <v>33.774243749333699</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
-        <v>33.774243749333699</v>
+        <v>32.1684177153316</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
-        <v>32.1684177153316</v>
+        <v>30.972171077000201</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
-        <v>30.972171077000201</v>
+        <v>31.813977748999601</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
-        <v>31.813977748999601</v>
+        <v>34.039092609668501</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
-        <v>34.039092609668501</v>
+        <v>35.093268250003597</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109" s="1">
+        <v>30.989311273331001</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110" s="1">
+        <v>31.662199856000299</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111" s="1">
+        <v>31.781126053664199</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112" s="1">
+        <v>31.870485575665899</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113" s="1">
+        <v>31.058035062334898</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114" s="1">
+        <v>31.936469068663399</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115" s="1">
+        <v>31.577747736999299</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116" s="1">
+        <v>31.873717029331601</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>33.429456806664</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>32.346280025002898</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>30.279090528997202</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>24.074937987995</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>24.041079608335401</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>25.073577057327601</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>26.549234852999898</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>24.085138929003701</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>24.049594953995701</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>25.783023070330501</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>24.010560972999201</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>23.974584582999</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>24.008357776668401</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>26.7874485613331</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>26.050983366668</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>26.242452064335001</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>28.5880041593336</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>23.955011364664301</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>24.675919495668399</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>24.322730993672501</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>27.7329379323346</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>28.752233360001501</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>25.2908579583357</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>25.756987180997299</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>25.594715981331898</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>25.087869257670999</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>25.191261272334099</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>25.017479082996299</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>25.0079147136566</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>25.0163334493311</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>24.579032463336802</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>27.331704079328698</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>42.828319869004098</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>